--- a/Data/Data S1.xlsx
+++ b/Data/Data S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmakast/Dropbox/Documents dropbox/Work/Research/Projects/Teeth/Shark/Writing/Megalodon N/Supplement Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmakast/Dropbox/Documents dropbox/Work/Research/Projects/Teeth/Shark/Writing/Megalodon N/Science Advances Final check 20220504/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3150E10-B002-844C-8FFA-22B65644DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F075E-9E20-6E44-9C82-0E99C087A088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34700" yWindow="-1900" windowWidth="31940" windowHeight="19600" activeTab="1"/>
+    <workbookView xWindow="34700" yWindow="500" windowWidth="31940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specimens" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="356">
   <si>
     <t>SDNHM 143306-A</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>hastalis</t>
-  </si>
-  <si>
-    <t>CMM-V-10486</t>
   </si>
   <si>
     <t>taurus</t>
@@ -1108,10 +1105,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1785,7 +1782,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2143,11 +2140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,75 +2174,75 @@
   <sheetData>
     <row r="1" spans="1:22" s="9" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>283</v>
-      </c>
       <c r="T1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -2270,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -2322,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2380,7 +2377,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>18</v>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -2432,7 +2429,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>18</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -2490,7 +2487,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
@@ -2517,7 +2514,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -2542,7 +2539,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>18</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -2594,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>18</v>
@@ -2627,7 +2624,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -2652,7 +2649,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>18</v>
@@ -2685,7 +2682,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -2710,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>18</v>
@@ -2743,7 +2740,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -2768,7 +2765,7 @@
         <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>18</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -2817,10 +2814,10 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>18</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -2869,10 +2866,10 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>18</v>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
@@ -2921,10 +2918,10 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>18</v>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -2973,10 +2970,10 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>18</v>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>38</v>
@@ -3025,10 +3022,10 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
@@ -3080,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
@@ -3138,7 +3135,7 @@
         <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>18</v>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -3196,7 +3193,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -3254,7 +3251,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>18</v>
@@ -3287,19 +3284,19 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>85</v>
@@ -3308,7 +3305,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>18</v>
@@ -3335,19 +3332,19 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>85</v>
@@ -3356,7 +3353,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>18</v>
@@ -3391,19 +3388,19 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>85</v>
@@ -3412,7 +3409,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>18</v>
@@ -3441,19 +3438,19 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>85</v>
@@ -3462,7 +3459,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>18</v>
@@ -3491,19 +3488,19 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>85</v>
@@ -3512,7 +3509,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>18</v>
@@ -3541,19 +3538,19 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>85</v>
@@ -3562,7 +3559,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>18</v>
@@ -3591,19 +3588,19 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>85</v>
@@ -3612,7 +3609,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>18</v>
@@ -3641,19 +3638,19 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>85</v>
@@ -3662,7 +3659,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>18</v>
@@ -3691,19 +3688,19 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>85</v>
@@ -3712,7 +3709,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
@@ -3741,19 +3738,19 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>85</v>
@@ -3762,7 +3759,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>18</v>
@@ -3797,19 +3794,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>85</v>
@@ -3818,7 +3815,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>18</v>
@@ -3847,19 +3844,19 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>85</v>
@@ -3868,7 +3865,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>18</v>
@@ -3897,19 +3894,19 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>85</v>
@@ -3918,7 +3915,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>18</v>
@@ -3953,19 +3950,19 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>85</v>
@@ -3974,7 +3971,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>18</v>
@@ -4003,7 +4000,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>66</v>
@@ -4051,7 +4048,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>71</v>
@@ -4099,7 +4096,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>72</v>
@@ -4147,19 +4144,19 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
@@ -4168,13 +4165,13 @@
         <v>62</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>18</v>
@@ -4201,19 +4198,19 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>3</v>
@@ -4222,13 +4219,13 @@
         <v>62</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>18</v>
@@ -4255,19 +4252,19 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>3</v>
@@ -4276,13 +4273,13 @@
         <v>62</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>18</v>
@@ -4309,19 +4306,19 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>3</v>
@@ -4330,13 +4327,13 @@
         <v>62</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>18</v>
@@ -4363,19 +4360,19 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>3</v>
@@ -4384,13 +4381,13 @@
         <v>62</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>18</v>
@@ -4417,19 +4414,19 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>3</v>
@@ -4438,13 +4435,13 @@
         <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>18</v>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>95</v>
@@ -4495,10 +4492,10 @@
         <v>97</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>18</v>
@@ -4525,7 +4522,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>98</v>
@@ -4549,10 +4546,10 @@
         <v>97</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>18</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
@@ -4603,10 +4600,10 @@
         <v>97</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>18</v>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>100</v>
@@ -4657,10 +4654,10 @@
         <v>97</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>18</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>101</v>
@@ -4711,10 +4708,10 @@
         <v>97</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>18</v>
@@ -4741,13 +4738,13 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>52</v>
@@ -4765,10 +4762,10 @@
         <v>97</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>18</v>
@@ -4801,13 +4798,13 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>1</v>
@@ -4822,13 +4819,13 @@
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>18</v>
@@ -4861,7 +4858,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>102</v>
@@ -4888,7 +4885,7 @@
         <v>105</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>18</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>106</v>
@@ -4942,7 +4939,7 @@
         <v>105</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>18</v>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
@@ -4996,7 +4993,7 @@
         <v>105</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>18</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>108</v>
@@ -5050,7 +5047,7 @@
         <v>105</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>18</v>
@@ -5077,7 +5074,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>109</v>
@@ -5104,7 +5101,7 @@
         <v>105</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>18</v>
@@ -5131,19 +5128,19 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>85</v>
@@ -5169,9 +5166,13 @@
       <c r="M56" s="3">
         <v>-77.2</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>19.63</v>
+      </c>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="P56" s="2">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="3"/>
       <c r="S56" s="7"/>
@@ -5181,22 +5182,22 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -5208,7 +5209,7 @@
         <v>113</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>18</v>
@@ -5220,14 +5221,20 @@
         <v>-77.2</v>
       </c>
       <c r="N57" s="1">
-        <v>19.63</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>22.24</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="P57" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="3"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="7"/>
       <c r="T57" s="1"/>
       <c r="U57" s="2"/>
@@ -5235,19 +5242,19 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>3</v>
@@ -5262,7 +5269,7 @@
         <v>113</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>18</v>
@@ -5274,20 +5281,14 @@
         <v>-77.2</v>
       </c>
       <c r="N58" s="1">
-        <v>22.24</v>
-      </c>
-      <c r="O58" s="2">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>27.56</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" s="2">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>7.56</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="3"/>
       <c r="S58" s="7"/>
       <c r="T58" s="1"/>
       <c r="U58" s="2"/>
@@ -5295,13 +5296,13 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>1</v>
@@ -5322,7 +5323,7 @@
         <v>113</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>18</v>
@@ -5334,11 +5335,11 @@
         <v>-77.2</v>
       </c>
       <c r="N59" s="1">
-        <v>27.56</v>
+        <v>27.03</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2">
-        <v>7.56</v>
+        <v>6.71</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="3"/>
@@ -5349,19 +5350,19 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>3</v>
@@ -5376,7 +5377,7 @@
         <v>113</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>18</v>
@@ -5388,28 +5389,28 @@
         <v>-77.2</v>
       </c>
       <c r="N60" s="1">
-        <v>27.03</v>
+        <v>26.28</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2">
-        <v>6.71</v>
+        <v>6.32</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="3"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="3"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>1</v>
@@ -5430,7 +5431,7 @@
         <v>113</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>18</v>
@@ -5442,28 +5443,28 @@
         <v>-77.2</v>
       </c>
       <c r="N61" s="1">
-        <v>26.28</v>
+        <v>26.24</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
-        <v>6.32</v>
+        <v>5.53</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="3"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="2"/>
+      <c r="T61" s="1"/>
       <c r="U61" s="2"/>
       <c r="V61" s="3"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1</v>
@@ -5484,7 +5485,7 @@
         <v>113</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>18</v>
@@ -5496,11 +5497,11 @@
         <v>-77.2</v>
       </c>
       <c r="N62" s="1">
-        <v>26.24</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2">
-        <v>5.53</v>
+        <v>13.01</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="3"/>
@@ -5511,13 +5512,13 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>1</v>
@@ -5538,7 +5539,7 @@
         <v>113</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>18</v>
@@ -5550,11 +5551,11 @@
         <v>-77.2</v>
       </c>
       <c r="N63" s="1">
-        <v>20.260000000000002</v>
+        <v>22.49</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2">
-        <v>13.01</v>
+        <v>11.95</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="3"/>
@@ -5565,22 +5566,22 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>16</v>
@@ -5592,7 +5593,7 @@
         <v>113</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>18</v>
@@ -5604,11 +5605,11 @@
         <v>-77.2</v>
       </c>
       <c r="N64" s="1">
-        <v>22.49</v>
+        <v>20.3</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2">
-        <v>11.95</v>
+        <v>3.11</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="3"/>
@@ -5619,34 +5620,34 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>18</v>
@@ -5658,28 +5659,34 @@
         <v>-77.2</v>
       </c>
       <c r="N65" s="1">
-        <v>20.3</v>
+        <v>26.12</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2">
-        <v>3.11</v>
+        <v>6.55</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="3"/>
       <c r="S65" s="7"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="3"/>
+      <c r="T65" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U65" s="2">
+        <v>36</v>
+      </c>
+      <c r="V65" s="3">
+        <v>692</v>
+      </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
@@ -5700,7 +5707,7 @@
         <v>120</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>18</v>
@@ -5712,28 +5719,34 @@
         <v>-77.2</v>
       </c>
       <c r="N66" s="1">
-        <v>26.12</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>18.88</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.41</v>
+      </c>
       <c r="P66" s="2">
-        <v>6.55</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="7"/>
-      <c r="T66" s="1" t="s">
-        <v>331</v>
+      <c r="T66" t="s">
+        <v>332</v>
       </c>
       <c r="U66" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V66" s="3">
-        <v>692</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>132</v>
@@ -5760,7 +5773,7 @@
         <v>120</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>18</v>
@@ -5772,34 +5785,34 @@
         <v>-77.2</v>
       </c>
       <c r="N67" s="1">
-        <v>18.88</v>
+        <v>29.21</v>
       </c>
       <c r="O67" s="2">
-        <v>0.41</v>
+        <v>2.78</v>
       </c>
       <c r="P67" s="2">
-        <v>4.9000000000000004</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="Q67" s="2">
-        <v>0.09</v>
+        <v>2.68</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="S67" s="7"/>
       <c r="T67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U67" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V67" s="3">
-        <v>1037</v>
+        <v>969</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>133</v>
@@ -5826,7 +5839,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>18</v>
@@ -5838,34 +5851,28 @@
         <v>-77.2</v>
       </c>
       <c r="N68" s="1">
-        <v>29.21</v>
-      </c>
-      <c r="O68" s="2">
-        <v>2.78</v>
-      </c>
+        <v>21.83</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>5.85</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="3"/>
       <c r="S68" s="7"/>
       <c r="T68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U68" s="2">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="V68" s="3">
-        <v>969</v>
+        <v>744</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>134</v>
@@ -5892,7 +5899,7 @@
         <v>120</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>18</v>
@@ -5904,28 +5911,28 @@
         <v>-77.2</v>
       </c>
       <c r="N69" s="1">
-        <v>21.83</v>
+        <v>29.1</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2">
-        <v>5.85</v>
+        <v>5.3</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="3"/>
       <c r="S69" s="7"/>
       <c r="T69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U69" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="V69" s="3">
-        <v>744</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>135</v>
@@ -5952,7 +5959,7 @@
         <v>120</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>18</v>
@@ -5964,43 +5971,43 @@
         <v>-77.2</v>
       </c>
       <c r="N70" s="1">
-        <v>29.1</v>
+        <v>25.22</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2">
-        <v>5.3</v>
+        <v>6.18</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="3"/>
       <c r="S70" s="7"/>
       <c r="T70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U70" s="2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V70" s="3">
-        <v>542</v>
+        <v>744</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
@@ -6012,7 +6019,7 @@
         <v>120</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>18</v>
@@ -6024,40 +6031,34 @@
         <v>-77.2</v>
       </c>
       <c r="N71" s="1">
-        <v>25.22</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2">
-        <v>6.18</v>
+        <v>4.16</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="3"/>
       <c r="S71" s="7"/>
-      <c r="T71" t="s">
-        <v>331</v>
-      </c>
-      <c r="U71" s="2">
-        <v>55</v>
-      </c>
-      <c r="V71" s="3">
-        <v>744</v>
-      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="3"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>69</v>
@@ -6072,7 +6073,7 @@
         <v>120</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>18</v>
@@ -6084,11 +6085,11 @@
         <v>-77.2</v>
       </c>
       <c r="N72" s="1">
-        <v>19.309999999999999</v>
+        <v>20.75</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2">
-        <v>4.16</v>
+        <v>3.97</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="3"/>
@@ -6099,22 +6100,22 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -6126,7 +6127,7 @@
         <v>120</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>18</v>
@@ -6138,11 +6139,11 @@
         <v>-77.2</v>
       </c>
       <c r="N73" s="1">
-        <v>20.75</v>
+        <v>17.96</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2">
-        <v>3.97</v>
+        <v>2.54</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="3"/>
@@ -6153,22 +6154,22 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>4</v>
@@ -6180,7 +6181,7 @@
         <v>120</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>18</v>
@@ -6192,11 +6193,11 @@
         <v>-77.2</v>
       </c>
       <c r="N74" s="1">
-        <v>17.96</v>
+        <v>15.98</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="3"/>
@@ -6207,50 +6208,50 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="2">
-        <v>34.6</v>
-      </c>
-      <c r="M75" s="3">
-        <v>-77.2</v>
+      <c r="L75" s="20">
+        <v>33</v>
+      </c>
+      <c r="M75" s="21">
+        <v>-80.099999999999994</v>
       </c>
       <c r="N75" s="1">
-        <v>15.98</v>
+        <v>26.4</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2">
-        <v>2.83</v>
+        <v>5.79</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="3"/>
@@ -6261,34 +6262,34 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>18</v>
@@ -6300,11 +6301,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N76" s="1">
-        <v>26.4</v>
+        <v>24.16</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2">
-        <v>5.79</v>
+        <v>9.9</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="3"/>
@@ -6315,7 +6316,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>169</v>
@@ -6327,22 +6328,22 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>18</v>
@@ -6354,11 +6355,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N77" s="1">
-        <v>24.16</v>
+        <v>18.23</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2">
-        <v>9.9</v>
+        <v>3.58</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="3"/>
@@ -6369,7 +6370,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>170</v>
@@ -6381,22 +6382,22 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>18</v>
@@ -6408,11 +6409,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N78" s="1">
-        <v>18.23</v>
+        <v>25.77</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2">
-        <v>3.58</v>
+        <v>4.53</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="3"/>
@@ -6423,7 +6424,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>171</v>
@@ -6435,22 +6436,22 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>18</v>
@@ -6462,11 +6463,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N79" s="1">
-        <v>25.77</v>
+        <v>24.28</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2">
-        <v>4.53</v>
+        <v>4.42</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="3"/>
@@ -6477,7 +6478,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>172</v>
@@ -6486,25 +6487,25 @@
         <v>172</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>18</v>
@@ -6516,11 +6517,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N80" s="1">
-        <v>24.28</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2">
-        <v>4.42</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="3"/>
@@ -6531,7 +6532,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>173</v>
@@ -6549,16 +6550,16 @@
         <v>85</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>18</v>
@@ -6570,11 +6571,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N81" s="1">
-        <v>18.489999999999998</v>
+        <v>16.3</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="3"/>
@@ -6585,7 +6586,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>174</v>
@@ -6603,16 +6604,16 @@
         <v>85</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>18</v>
@@ -6624,11 +6625,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N82" s="1">
-        <v>16.3</v>
+        <v>13.43</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2">
-        <v>2.19</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="3"/>
@@ -6639,7 +6640,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>175</v>
@@ -6657,16 +6658,16 @@
         <v>85</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>18</v>
@@ -6678,11 +6679,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N83" s="1">
-        <v>13.43</v>
+        <v>15.2</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="3"/>
@@ -6693,7 +6694,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>176</v>
@@ -6711,16 +6712,16 @@
         <v>85</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>18</v>
@@ -6732,11 +6733,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N84" s="1">
-        <v>15.2</v>
+        <v>10.35</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.77</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="3"/>
@@ -6747,7 +6748,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>177</v>
@@ -6765,16 +6766,16 @@
         <v>85</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>18</v>
@@ -6786,11 +6787,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N85" s="1">
-        <v>10.35</v>
+        <v>13.02</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="3"/>
@@ -6801,7 +6802,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>178</v>
@@ -6819,16 +6820,16 @@
         <v>85</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>18</v>
@@ -6840,11 +6841,11 @@
         <v>-80.099999999999994</v>
       </c>
       <c r="N86" s="1">
-        <v>13.02</v>
+        <v>16.48</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="3"/>
@@ -6855,50 +6856,50 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="20">
-        <v>33</v>
-      </c>
-      <c r="M87" s="21">
-        <v>-80.099999999999994</v>
+        <v>58</v>
+      </c>
+      <c r="L87" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="M87" s="3">
+        <v>-1.2</v>
       </c>
       <c r="N87" s="1">
-        <v>16.48</v>
+        <v>14.02</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2">
-        <v>3.03</v>
+        <v>3.32</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="3"/>
@@ -6909,13 +6910,13 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>52</v>
@@ -6948,11 +6949,11 @@
         <v>-1.2</v>
       </c>
       <c r="N88" s="1">
-        <v>14.02</v>
+        <v>14.47</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2">
-        <v>3.32</v>
+        <v>4.96</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
@@ -6963,7 +6964,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>212</v>
@@ -7002,11 +7003,11 @@
         <v>-1.2</v>
       </c>
       <c r="N89" s="1">
-        <v>14.47</v>
+        <v>10.74</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2">
-        <v>4.96</v>
+        <v>3.45</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="3"/>
@@ -7017,7 +7018,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>213</v>
@@ -7056,11 +7057,11 @@
         <v>-1.2</v>
       </c>
       <c r="N90" s="1">
-        <v>10.74</v>
+        <v>12.64</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="3"/>
@@ -7071,7 +7072,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>214</v>
@@ -7110,11 +7111,11 @@
         <v>-1.2</v>
       </c>
       <c r="N91" s="1">
-        <v>12.64</v>
+        <v>11.4</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2">
-        <v>3.92</v>
+        <v>3.46</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="3"/>
@@ -7125,7 +7126,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>215</v>
@@ -7164,11 +7165,11 @@
         <v>-1.2</v>
       </c>
       <c r="N92" s="1">
-        <v>11.4</v>
+        <v>15.4</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="3"/>
@@ -7179,7 +7180,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>216</v>
@@ -7200,29 +7201,29 @@
         <v>54</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L93" s="2">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="M93" s="3">
-        <v>-1.2</v>
+        <v>0.1</v>
       </c>
       <c r="N93" s="1">
-        <v>15.4</v>
+        <v>7.5</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2">
-        <v>3.42</v>
+        <v>3.81</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="3"/>
@@ -7233,13 +7234,13 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>52</v>
@@ -7254,13 +7255,13 @@
         <v>54</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>58</v>
@@ -7272,11 +7273,11 @@
         <v>0.1</v>
       </c>
       <c r="N94" s="1">
-        <v>7.5</v>
+        <v>15.18</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="3"/>
@@ -7287,7 +7288,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>219</v>
@@ -7308,13 +7309,13 @@
         <v>54</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>58</v>
@@ -7326,11 +7327,11 @@
         <v>0.1</v>
       </c>
       <c r="N95" s="1">
-        <v>15.18</v>
+        <v>16.3</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="3"/>
@@ -7341,50 +7342,50 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L96" s="2">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="M96" s="3">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N96" s="1">
-        <v>16.3</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2">
-        <v>2.92</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="3"/>
@@ -7395,19 +7396,19 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>3</v>
@@ -7419,10 +7420,10 @@
         <v>104</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>58</v>
@@ -7434,11 +7435,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N97" s="1">
-        <v>17.579999999999998</v>
+        <v>19.48</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2">
-        <v>4.2300000000000004</v>
+        <v>3.99</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="3"/>
@@ -7449,7 +7450,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>232</v>
@@ -7461,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>3</v>
@@ -7473,10 +7474,10 @@
         <v>104</v>
       </c>
       <c r="I98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>58</v>
@@ -7488,11 +7489,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N98" s="1">
-        <v>19.48</v>
+        <v>21.81</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2">
-        <v>3.99</v>
+        <v>6.84</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" s="3"/>
@@ -7503,7 +7504,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>233</v>
@@ -7515,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>3</v>
@@ -7527,10 +7528,10 @@
         <v>104</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>58</v>
@@ -7542,11 +7543,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N99" s="1">
-        <v>21.81</v>
+        <v>22.13</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2">
-        <v>6.84</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" s="3"/>
@@ -7557,7 +7558,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>234</v>
@@ -7569,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>3</v>
@@ -7581,10 +7582,10 @@
         <v>104</v>
       </c>
       <c r="I100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>58</v>
@@ -7596,11 +7597,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N100" s="1">
-        <v>22.13</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2">
-        <v>4.6100000000000003</v>
+        <v>4.34</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="3"/>
@@ -7611,7 +7612,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>235</v>
@@ -7620,13 +7621,13 @@
         <v>235</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>103</v>
@@ -7635,10 +7636,10 @@
         <v>104</v>
       </c>
       <c r="I101" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>58</v>
@@ -7650,11 +7651,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N101" s="1">
-        <v>19.100000000000001</v>
+        <v>13.82</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2">
-        <v>4.34</v>
+        <v>4.22</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="3"/>
@@ -7665,19 +7666,19 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
@@ -7689,10 +7690,10 @@
         <v>104</v>
       </c>
       <c r="I102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>58</v>
@@ -7704,11 +7705,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N102" s="1">
-        <v>13.82</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2">
-        <v>4.22</v>
+        <v>4.53</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="3"/>
@@ -7719,7 +7720,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>239</v>
@@ -7728,10 +7729,10 @@
         <v>239</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
@@ -7743,10 +7744,10 @@
         <v>104</v>
       </c>
       <c r="I103" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>58</v>
@@ -7758,11 +7759,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N103" s="1">
-        <v>16.940000000000001</v>
+        <v>15.27</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="3"/>
@@ -7773,7 +7774,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>240</v>
@@ -7782,10 +7783,10 @@
         <v>240</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>15</v>
@@ -7797,10 +7798,10 @@
         <v>104</v>
       </c>
       <c r="I104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>58</v>
@@ -7812,11 +7813,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N104" s="1">
-        <v>15.27</v>
+        <v>14.21</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2">
-        <v>4.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="3"/>
@@ -7827,7 +7828,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>241</v>
@@ -7836,10 +7837,10 @@
         <v>241</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
@@ -7851,10 +7852,10 @@
         <v>104</v>
       </c>
       <c r="I105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>58</v>
@@ -7866,11 +7867,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N105" s="1">
-        <v>14.21</v>
+        <v>17.29</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2">
-        <v>3.67</v>
+        <v>4.62</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="3"/>
@@ -7881,7 +7882,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>242</v>
@@ -7890,10 +7891,10 @@
         <v>242</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -7905,10 +7906,10 @@
         <v>104</v>
       </c>
       <c r="I106" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>58</v>
@@ -7920,11 +7921,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N106" s="1">
-        <v>17.29</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2">
-        <v>4.62</v>
+        <v>3.07</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="3"/>
@@ -7935,19 +7936,19 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>15</v>
@@ -7959,10 +7960,10 @@
         <v>104</v>
       </c>
       <c r="I107" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>58</v>
@@ -7974,11 +7975,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N107" s="1">
-        <v>18.059999999999999</v>
+        <v>12.68</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="3"/>
@@ -7989,7 +7990,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>245</v>
@@ -8001,7 +8002,7 @@
         <v>52</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
@@ -8013,10 +8014,10 @@
         <v>104</v>
       </c>
       <c r="I108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>58</v>
@@ -8028,11 +8029,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N108" s="1">
-        <v>12.68</v>
+        <v>14.66</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2">
-        <v>3.34</v>
+        <v>2.94</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="3"/>
@@ -8043,7 +8044,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>246</v>
@@ -8055,7 +8056,7 @@
         <v>52</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>15</v>
@@ -8067,10 +8068,10 @@
         <v>104</v>
       </c>
       <c r="I109" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>58</v>
@@ -8082,11 +8083,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N109" s="1">
-        <v>14.66</v>
+        <v>14.06</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2">
-        <v>2.94</v>
+        <v>4.22</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="3"/>
@@ -8097,7 +8098,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>247</v>
@@ -8109,7 +8110,7 @@
         <v>52</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>15</v>
@@ -8121,10 +8122,10 @@
         <v>104</v>
       </c>
       <c r="I110" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>58</v>
@@ -8136,11 +8137,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N110" s="1">
-        <v>14.06</v>
+        <v>15.32</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2">
-        <v>4.22</v>
+        <v>2.99</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="3"/>
@@ -8151,7 +8152,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>248</v>
@@ -8163,7 +8164,7 @@
         <v>52</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
@@ -8172,13 +8173,13 @@
         <v>103</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="I111" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J111" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>58</v>
@@ -8190,11 +8191,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N111" s="1">
-        <v>15.32</v>
+        <v>14.31</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="3"/>
@@ -8205,7 +8206,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>249</v>
@@ -8217,7 +8218,7 @@
         <v>52</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
@@ -8226,13 +8227,13 @@
         <v>103</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="J112" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>58</v>
@@ -8244,11 +8245,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N112" s="1">
-        <v>14.31</v>
+        <v>14.74</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="3"/>
@@ -8259,7 +8260,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>250</v>
@@ -8271,7 +8272,7 @@
         <v>52</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>15</v>
@@ -8280,13 +8281,13 @@
         <v>103</v>
       </c>
       <c r="H113" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="J113" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>58</v>
@@ -8298,11 +8299,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N113" s="1">
-        <v>14.74</v>
+        <v>14.18</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2">
-        <v>2.7</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="3"/>
@@ -8313,7 +8314,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>251</v>
@@ -8325,7 +8326,7 @@
         <v>52</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
@@ -8334,13 +8335,13 @@
         <v>103</v>
       </c>
       <c r="H114" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="J114" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>58</v>
@@ -8352,11 +8353,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N114" s="1">
-        <v>14.18</v>
+        <v>14.96</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="3"/>
@@ -8367,7 +8368,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>252</v>
@@ -8379,7 +8380,7 @@
         <v>52</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>15</v>
@@ -8388,13 +8389,13 @@
         <v>103</v>
       </c>
       <c r="H115" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="J115" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>58</v>
@@ -8406,11 +8407,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N115" s="1">
-        <v>14.96</v>
+        <v>13.35</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="3"/>
@@ -8421,50 +8422,50 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L116" s="2">
-        <v>51.4</v>
+        <v>50</v>
       </c>
       <c r="M116" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="N116" s="1">
-        <v>13.35</v>
+        <v>15.69</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="3"/>
@@ -8475,50 +8476,50 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L117" s="2">
-        <v>50</v>
+        <v>51.1</v>
       </c>
       <c r="M117" s="3">
-        <v>1.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N117" s="1">
-        <v>15.69</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2">
-        <v>1.93</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="3"/>
@@ -8529,7 +8530,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>227</v>
@@ -8550,13 +8551,13 @@
         <v>16</v>
       </c>
       <c r="H118" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>58</v>
@@ -8568,11 +8569,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N118" s="1">
-        <v>9.2899999999999991</v>
+        <v>10.47</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2">
-        <v>4.6399999999999997</v>
+        <v>3.74</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="3"/>
@@ -8583,7 +8584,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>228</v>
@@ -8604,13 +8605,13 @@
         <v>16</v>
       </c>
       <c r="H119" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>58</v>
@@ -8622,11 +8623,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N119" s="1">
-        <v>10.47</v>
+        <v>14.79</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2">
-        <v>3.74</v>
+        <v>2.52</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="3"/>
@@ -8637,34 +8638,34 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H120" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>58</v>
@@ -8676,11 +8677,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N120" s="1">
-        <v>14.79</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2">
-        <v>2.52</v>
+        <v>4.41</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="3"/>
@@ -8691,13 +8692,13 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>67</v>
@@ -8712,13 +8713,13 @@
         <v>16</v>
       </c>
       <c r="H121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>58</v>
@@ -8730,11 +8731,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N121" s="1">
-        <v>16.170000000000002</v>
+        <v>21.63</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2">
-        <v>4.41</v>
+        <v>3.94</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="3"/>
@@ -8745,7 +8746,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>225</v>
@@ -8766,13 +8767,13 @@
         <v>16</v>
       </c>
       <c r="H122" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>58</v>
@@ -8784,11 +8785,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N122" s="1">
-        <v>21.63</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2">
-        <v>3.94</v>
+        <v>3.21</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="3"/>
@@ -8799,50 +8800,50 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L123" s="2">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="M123" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="N123" s="1">
-        <v>16.260000000000002</v>
+        <v>14.42</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2">
-        <v>3.21</v>
+        <v>5.26</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="3"/>
@@ -8853,7 +8854,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>259</v>
@@ -8874,13 +8875,13 @@
         <v>4</v>
       </c>
       <c r="H124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="J124" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>58</v>
@@ -8892,11 +8893,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N124" s="1">
-        <v>14.42</v>
+        <v>13.87</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2">
-        <v>5.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="3"/>
@@ -8907,34 +8908,34 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="J125" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>58</v>
@@ -8946,11 +8947,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N125" s="1">
-        <v>13.87</v>
+        <v>19.71</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="3"/>
@@ -8961,13 +8962,13 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>67</v>
@@ -8982,13 +8983,13 @@
         <v>4</v>
       </c>
       <c r="H126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="J126" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>58</v>
@@ -9000,11 +9001,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N126" s="1">
-        <v>19.71</v>
+        <v>13.41</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2">
-        <v>3.58</v>
+        <v>3.28</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="3"/>
@@ -9015,7 +9016,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>257</v>
@@ -9036,13 +9037,13 @@
         <v>4</v>
       </c>
       <c r="H127" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="J127" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>58</v>
@@ -9054,11 +9055,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N127" s="1">
-        <v>13.41</v>
+        <v>12.12</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2">
-        <v>3.28</v>
+        <v>5.31</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="3"/>
@@ -9069,50 +9070,50 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="L128" s="2">
-        <v>51.3</v>
+        <v>36.5</v>
       </c>
       <c r="M128" s="3">
-        <v>4.4000000000000004</v>
+        <v>138.4</v>
       </c>
       <c r="N128" s="1">
-        <v>12.12</v>
+        <v>26.86</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2">
-        <v>5.31</v>
+        <v>11.99</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="3"/>
@@ -9123,13 +9124,13 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>1</v>
@@ -9162,11 +9163,11 @@
         <v>138.4</v>
       </c>
       <c r="N129" s="1">
-        <v>26.86</v>
+        <v>16.52</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2">
-        <v>11.99</v>
+        <v>7.41</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="3"/>
@@ -9177,13 +9178,13 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>1</v>
@@ -9216,11 +9217,11 @@
         <v>138.4</v>
       </c>
       <c r="N130" s="1">
-        <v>16.52</v>
+        <v>11.44</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2">
-        <v>7.41</v>
+        <v>8.92</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="3"/>
@@ -9231,13 +9232,13 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>1</v>
@@ -9270,14 +9271,20 @@
         <v>138.4</v>
       </c>
       <c r="N131" s="1">
-        <v>11.44</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>27.32</v>
+      </c>
+      <c r="O131" s="2">
+        <v>0.12</v>
+      </c>
       <c r="P131" s="2">
-        <v>8.92</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="3"/>
+        <v>8.26</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="S131" s="7"/>
       <c r="T131" s="1"/>
       <c r="U131" s="2"/>
@@ -9285,13 +9292,13 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>1</v>
@@ -9324,20 +9331,14 @@
         <v>138.4</v>
       </c>
       <c r="N132" s="1">
-        <v>27.32</v>
-      </c>
-      <c r="O132" s="2">
-        <v>0.12</v>
-      </c>
+        <v>22.29</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" s="2">
-        <v>8.26</v>
-      </c>
-      <c r="Q132" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="R132" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="3"/>
       <c r="S132" s="7"/>
       <c r="T132" s="1"/>
       <c r="U132" s="2"/>
@@ -9345,13 +9346,13 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>1</v>
@@ -9384,11 +9385,11 @@
         <v>138.4</v>
       </c>
       <c r="N133" s="1">
-        <v>22.29</v>
+        <v>18.7</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2">
-        <v>5</v>
+        <v>6.65</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="3"/>
@@ -9399,13 +9400,13 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>1</v>
@@ -9417,16 +9418,16 @@
         <v>3</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>77</v>
@@ -9438,28 +9439,34 @@
         <v>138.4</v>
       </c>
       <c r="N134" s="1">
-        <v>18.7</v>
+        <v>26.36</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2">
-        <v>6.65</v>
+        <v>5.28</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="3"/>
       <c r="S134" s="7"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="3"/>
+      <c r="T134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U134" s="2">
+        <v>60</v>
+      </c>
+      <c r="V134" s="3">
+        <v>811</v>
+      </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>1</v>
@@ -9492,34 +9499,34 @@
         <v>138.4</v>
       </c>
       <c r="N135" s="1">
-        <v>26.36</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2">
-        <v>5.28</v>
+        <v>5.62</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="3"/>
       <c r="S135" s="7"/>
       <c r="T135" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U135" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="V135" s="3">
-        <v>811</v>
+        <v>959</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>1</v>
@@ -9552,11 +9559,11 @@
         <v>138.4</v>
       </c>
       <c r="N136" s="1">
-        <v>17.649999999999999</v>
+        <v>22.14</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2">
-        <v>5.62</v>
+        <v>5.04</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="3"/>
@@ -9565,21 +9572,21 @@
         <v>331</v>
       </c>
       <c r="U136" s="2">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="V136" s="3">
-        <v>959</v>
+        <v>780</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
@@ -9612,34 +9619,34 @@
         <v>138.4</v>
       </c>
       <c r="N137" s="1">
-        <v>22.14</v>
+        <v>24.14</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2">
-        <v>5.04</v>
+        <v>7.61</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="3"/>
       <c r="S137" s="7"/>
       <c r="T137" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U137" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="V137" s="3">
-        <v>780</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>1</v>
@@ -9672,11 +9679,11 @@
         <v>138.4</v>
       </c>
       <c r="N138" s="1">
-        <v>24.14</v>
+        <v>22.3</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2">
-        <v>7.61</v>
+        <v>5.3</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="3"/>
@@ -9685,30 +9692,30 @@
         <v>331</v>
       </c>
       <c r="U138" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V138" s="3">
-        <v>542</v>
+        <v>709</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -9732,34 +9739,28 @@
         <v>138.4</v>
       </c>
       <c r="N139" s="1">
-        <v>22.3</v>
+        <v>18.79</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2">
-        <v>5.3</v>
+        <v>3.13</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" s="3"/>
       <c r="S139" s="7"/>
-      <c r="T139" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="U139" s="2">
-        <v>60</v>
-      </c>
-      <c r="V139" s="3">
-        <v>709</v>
-      </c>
+      <c r="T139" s="1"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="3"/>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>13</v>
@@ -9792,11 +9793,11 @@
         <v>138.4</v>
       </c>
       <c r="N140" s="1">
-        <v>18.79</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="3"/>
@@ -9807,13 +9808,13 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>13</v>
@@ -9846,11 +9847,11 @@
         <v>138.4</v>
       </c>
       <c r="N141" s="1">
-        <v>16.940000000000001</v>
+        <v>15.68</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="3"/>
@@ -9861,22 +9862,22 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>4</v>
@@ -9885,26 +9886,26 @@
         <v>5</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="L142" s="2">
         <v>36.5</v>
       </c>
       <c r="M142" s="3">
-        <v>138.4</v>
+        <v>-119.8</v>
       </c>
       <c r="N142" s="1">
-        <v>15.68</v>
+        <v>26.53</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2">
-        <v>2.37</v>
+        <v>9.15</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="3"/>
@@ -9915,13 +9916,13 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>1</v>
@@ -9954,11 +9955,11 @@
         <v>-119.8</v>
       </c>
       <c r="N143" s="1">
-        <v>26.53</v>
+        <v>19.07</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2">
-        <v>9.15</v>
+        <v>4.41</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="3"/>
@@ -9969,13 +9970,13 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>1</v>
@@ -10008,94 +10009,100 @@
         <v>-119.8</v>
       </c>
       <c r="N144" s="1">
-        <v>19.07</v>
+        <v>20.11</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="3"/>
       <c r="S144" s="7"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="2"/>
-      <c r="V144" s="3"/>
+      <c r="T144" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U144" s="2">
+        <v>50</v>
+      </c>
+      <c r="V144" s="3">
+        <v>677</v>
+      </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L145" s="2">
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="M145" s="3">
-        <v>-119.8</v>
+        <v>-77.3</v>
       </c>
       <c r="N145" s="1">
-        <v>20.11</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>14.65</v>
+      </c>
+      <c r="O145" s="2">
+        <v>0.67</v>
+      </c>
       <c r="P145" s="2">
-        <v>4.58</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="3"/>
+        <v>4.46</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="S145" s="7"/>
-      <c r="T145" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="U145" s="2">
-        <v>50</v>
-      </c>
-      <c r="V145" s="3">
-        <v>677</v>
-      </c>
+      <c r="T145" s="1"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="3"/>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>61</v>
@@ -10107,10 +10114,10 @@
         <v>104</v>
       </c>
       <c r="I146" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J146" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>18</v>
@@ -10122,16 +10129,16 @@
         <v>-77.3</v>
       </c>
       <c r="N146" s="1">
-        <v>14.65</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="O146" s="2">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="P146" s="2">
-        <v>4.46</v>
+        <v>3.79</v>
       </c>
       <c r="Q146" s="2">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="R146" s="3" t="s">
         <v>81</v>
@@ -10143,7 +10150,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>195</v>
@@ -10152,22 +10159,22 @@
         <v>195</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>315</v>
@@ -10176,25 +10183,25 @@
         <v>18</v>
       </c>
       <c r="L147" s="2">
-        <v>38.5</v>
+        <v>34.4</v>
       </c>
       <c r="M147" s="3">
-        <v>-77.3</v>
+        <v>-77.900000000000006</v>
       </c>
       <c r="N147" s="1">
-        <v>16.329999999999998</v>
+        <v>13.03</v>
       </c>
       <c r="O147" s="2">
-        <v>0.46</v>
+        <v>1.2</v>
       </c>
       <c r="P147" s="2">
-        <v>3.79</v>
+        <v>2.29</v>
       </c>
       <c r="Q147" s="2">
-        <v>0.04</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R147" s="3" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S147" s="7"/>
       <c r="T147" s="1"/>
@@ -10203,13 +10210,13 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>13</v>
@@ -10224,13 +10231,13 @@
         <v>54</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>18</v>
@@ -10242,20 +10249,14 @@
         <v>-77.900000000000006</v>
       </c>
       <c r="N148" s="1">
-        <v>13.03</v>
-      </c>
-      <c r="O148" s="2">
-        <v>1.2</v>
-      </c>
+        <v>14.48</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="Q148" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R148" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>2.91</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="3"/>
       <c r="S148" s="7"/>
       <c r="T148" s="1"/>
       <c r="U148" s="2"/>
@@ -10263,7 +10264,7 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>198</v>
@@ -10284,29 +10285,29 @@
         <v>54</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L149" s="2">
-        <v>34.4</v>
+        <v>52.5</v>
       </c>
       <c r="M149" s="3">
-        <v>-77.900000000000006</v>
+        <v>-1.2</v>
       </c>
       <c r="N149" s="1">
-        <v>14.48</v>
+        <v>12.65</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" s="3"/>
@@ -10317,50 +10318,50 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="I150" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="K150" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="L150" s="2">
-        <v>52.5</v>
+        <v>38.1</v>
       </c>
       <c r="M150" s="3">
-        <v>-1.2</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="N150" s="1">
-        <v>12.65</v>
+        <v>20.05</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2">
-        <v>2.93</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="3"/>
@@ -10371,31 +10372,31 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>318</v>
@@ -10404,17 +10405,17 @@
         <v>18</v>
       </c>
       <c r="L151" s="2">
-        <v>38.1</v>
+        <v>34.6</v>
       </c>
       <c r="M151" s="3">
-        <v>-76.599999999999994</v>
+        <v>-78.599999999999994</v>
       </c>
       <c r="N151" s="1">
-        <v>20.05</v>
+        <v>14.28</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2">
-        <v>4.1900000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="3"/>
@@ -10425,13 +10426,13 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>60</v>
@@ -10449,10 +10450,10 @@
         <v>63</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>18</v>
@@ -10464,11 +10465,11 @@
         <v>-78.599999999999994</v>
       </c>
       <c r="N152" s="1">
-        <v>14.28</v>
+        <v>13.59</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2">
-        <v>4.76</v>
+        <v>3.05</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="R152" s="3"/>
@@ -10479,7 +10480,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>295</v>
@@ -10488,22 +10489,20 @@
         <v>206</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>319</v>
@@ -10512,20 +10511,26 @@
         <v>18</v>
       </c>
       <c r="L153" s="2">
-        <v>34.6</v>
+        <v>35.1</v>
       </c>
       <c r="M153" s="3">
-        <v>-78.599999999999994</v>
+        <v>-77</v>
       </c>
       <c r="N153" s="1">
-        <v>13.59</v>
-      </c>
-      <c r="O153" s="2"/>
+        <v>20.25</v>
+      </c>
+      <c r="O153" s="2">
+        <v>0.03</v>
+      </c>
       <c r="P153" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="3"/>
+        <v>5.45</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="S153" s="7"/>
       <c r="T153" s="1"/>
       <c r="U153" s="2"/>
@@ -10533,13 +10538,13 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>67</v>
@@ -10555,10 +10560,10 @@
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>18</v>
@@ -10570,16 +10575,16 @@
         <v>-77</v>
       </c>
       <c r="N154" s="1">
-        <v>20.25</v>
+        <v>17.54</v>
       </c>
       <c r="O154" s="2">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="P154" s="2">
-        <v>5.45</v>
+        <v>6.51</v>
       </c>
       <c r="Q154" s="2">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="R154" s="3" t="s">
         <v>81</v>
@@ -10591,10 +10596,10 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>209</v>
@@ -10613,10 +10618,10 @@
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>18</v>
@@ -10628,16 +10633,16 @@
         <v>-77</v>
       </c>
       <c r="N155" s="1">
-        <v>17.54</v>
+        <v>16.47</v>
       </c>
       <c r="O155" s="2">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="P155" s="2">
-        <v>6.51</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="Q155" s="2">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="R155" s="3" t="s">
         <v>81</v>
@@ -10649,7 +10654,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>296</v>
@@ -10658,48 +10663,44 @@
         <v>210</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="I156" s="2" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>320</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L156" s="2">
-        <v>35.1</v>
+        <v>43.4</v>
       </c>
       <c r="M156" s="3">
-        <v>-77</v>
+        <v>3.7</v>
       </c>
       <c r="N156" s="1">
-        <v>16.47</v>
-      </c>
-      <c r="O156" s="2">
-        <v>0.67</v>
-      </c>
+        <v>11.52</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" s="2">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="Q156" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="R156" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>3.75</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="3"/>
       <c r="S156" s="7"/>
       <c r="T156" s="1"/>
       <c r="U156" s="2"/>
@@ -10707,53 +10708,59 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="L157" s="2">
-        <v>43.4</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="M157" s="3">
-        <v>3.7</v>
+        <v>-76.8</v>
       </c>
       <c r="N157" s="1">
-        <v>11.52</v>
-      </c>
-      <c r="O157" s="2"/>
+        <v>22.64</v>
+      </c>
+      <c r="O157" s="2">
+        <v>0.37</v>
+      </c>
       <c r="P157" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="3"/>
+        <v>7.82</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="S157" s="7"/>
       <c r="T157" s="1"/>
       <c r="U157" s="2"/>
@@ -10761,55 +10768,55 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L158" s="2">
-        <v>35.299999999999997</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="M158" s="3">
-        <v>-76.8</v>
+        <v>-74.2</v>
       </c>
       <c r="N158" s="1">
-        <v>22.64</v>
+        <v>12.88</v>
       </c>
       <c r="O158" s="2">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="P158" s="2">
-        <v>7.82</v>
+        <v>4.12</v>
       </c>
       <c r="Q158" s="2">
-        <v>0.95</v>
+        <v>0.22</v>
       </c>
       <c r="R158" s="3" t="s">
         <v>81</v>
@@ -10821,10 +10828,10 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>293</v>
@@ -10833,7 +10840,7 @@
         <v>60</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>61</v>
@@ -10845,10 +10852,10 @@
         <v>63</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>18</v>
@@ -10860,16 +10867,16 @@
         <v>-74.2</v>
       </c>
       <c r="N159" s="1">
-        <v>12.88</v>
+        <v>15.05</v>
       </c>
       <c r="O159" s="2">
-        <v>0.01</v>
+        <v>0.46</v>
       </c>
       <c r="P159" s="2">
-        <v>4.12</v>
+        <v>4.54</v>
       </c>
       <c r="Q159" s="2">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="R159" s="3" t="s">
         <v>81</v>
@@ -10881,55 +10888,53 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I160" s="2" t="s">
+      <c r="J160" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L160" s="2">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="M160" s="3">
-        <v>-74.2</v>
+      <c r="L160" s="20">
+        <v>28</v>
+      </c>
+      <c r="M160" s="21">
+        <v>-82.1</v>
       </c>
       <c r="N160" s="1">
-        <v>15.05</v>
+        <v>27.07</v>
       </c>
       <c r="O160" s="2">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="P160" s="2">
-        <v>4.54</v>
+        <v>7.37</v>
       </c>
       <c r="Q160" s="2">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="R160" s="3" t="s">
         <v>81</v>
@@ -10941,53 +10946,53 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
         <v>159</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L161" s="20">
-        <v>28</v>
-      </c>
-      <c r="M161" s="21">
-        <v>-82.1</v>
+      <c r="L161" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M161" s="3">
+        <v>-80.7</v>
       </c>
       <c r="N161" s="1">
-        <v>27.07</v>
+        <v>13.95</v>
       </c>
       <c r="O161" s="2">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P161" s="2">
-        <v>7.37</v>
+        <v>4.54</v>
       </c>
       <c r="Q161" s="2">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="R161" s="3" t="s">
         <v>81</v>
@@ -10999,13 +11004,13 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>13</v>
@@ -11021,10 +11026,10 @@
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J162" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>18</v>
@@ -11036,16 +11041,16 @@
         <v>-80.7</v>
       </c>
       <c r="N162" s="1">
-        <v>13.95</v>
+        <v>16.21</v>
       </c>
       <c r="O162" s="2">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="P162" s="2">
         <v>4.54</v>
       </c>
       <c r="Q162" s="2">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="R162" s="3" t="s">
         <v>81</v>
@@ -11055,137 +11060,79 @@
       <c r="U162" s="2"/>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B163" s="2" t="s">
+    <row r="163" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J163" s="2" t="s">
+      <c r="C163" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="I163" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K163" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L163" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="M163" s="3">
-        <v>-80.7</v>
-      </c>
-      <c r="N163" s="1">
-        <v>16.21</v>
-      </c>
-      <c r="O163" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="P163" s="2">
-        <v>4.54</v>
-      </c>
-      <c r="Q163" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R163" s="3" t="s">
+      <c r="L163" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="M163" s="6">
+        <v>-76.8</v>
+      </c>
+      <c r="N163" s="4">
+        <v>24.18</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P163" s="5">
+        <v>7.28</v>
+      </c>
+      <c r="Q163" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="R163" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="S163" s="7"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="3"/>
-    </row>
-    <row r="164" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L164" s="5">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="M164" s="6">
-        <v>-76.8</v>
-      </c>
-      <c r="N164" s="4">
-        <v>24.18</v>
-      </c>
-      <c r="O164" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P164" s="5">
-        <v>7.28</v>
-      </c>
-      <c r="Q164" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="R164" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S164" s="8"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="5"/>
-      <c r="V164" s="6"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V164">
-    <sortCondition ref="B2:B164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V163">
+    <sortCondition ref="B2:B163"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -11199,24 +11146,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="C2" s="22">
         <v>18.892250618324201</v>
@@ -11227,10 +11174,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="C3" s="22">
         <v>18.996306747584899</v>
@@ -11241,10 +11188,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="C4" s="22">
         <v>19.4017266619087</v>
@@ -11255,10 +11202,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="22">
         <v>19.469586578544298</v>
@@ -11269,10 +11216,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="22">
         <v>19.1224050078876</v>
@@ -11283,10 +11230,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="22">
         <v>19.487416811044799</v>
@@ -11297,10 +11244,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="22">
         <v>18.947143584706399</v>
@@ -11311,10 +11258,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="22">
         <v>19.134826410844902</v>
@@ -11325,10 +11272,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="22">
         <v>17.745378577200398</v>
@@ -11339,10 +11286,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="22">
         <v>17.887978395165501</v>
@@ -11353,10 +11300,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="22">
         <v>17.344904155949902</v>
@@ -11367,10 +11314,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="22">
         <v>18.969075365138199</v>
@@ -11381,10 +11328,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="22">
         <v>18.526738374376201</v>
@@ -11395,10 +11342,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="22">
         <v>18.045955268940698</v>
@@ -11409,10 +11356,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="22">
         <v>17.941980866245501</v>
@@ -11423,10 +11370,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" s="22">
         <v>18.073510436261</v>
@@ -11437,10 +11384,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C18" s="22">
         <v>18.685460051071299</v>
@@ -11451,10 +11398,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C19" s="22">
         <v>18.1675740903659</v>
@@ -11465,10 +11412,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C20" s="22">
         <v>18.998722345455899</v>
@@ -11479,10 +11426,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="22">
         <v>18.823073954995401</v>
@@ -11493,10 +11440,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22" s="22">
         <v>18.5869204986829</v>
@@ -11507,10 +11454,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="22">
         <v>18.614609100382001</v>
@@ -11521,10 +11468,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="22">
         <v>18.335051894698999</v>
@@ -11535,10 +11482,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="22">
         <v>19.081592480926702</v>
@@ -11549,10 +11496,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" s="22">
         <v>17.194034370202299</v>
@@ -11563,10 +11510,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="22">
         <v>19.431449251011799</v>
@@ -11577,10 +11524,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="22">
         <v>18.547891134024901</v>
@@ -11591,10 +11538,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" s="22">
         <v>17.847480768474501</v>
@@ -11605,10 +11552,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="22">
         <v>17.914032001902299</v>
@@ -11619,10 +11566,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" s="22">
         <v>18.671196267584701</v>
@@ -11633,10 +11580,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C32" s="22">
         <v>19.588252030774399</v>
@@ -11647,10 +11594,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C33" s="22">
         <v>19.670407630206402</v>
@@ -11661,10 +11608,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C34" s="22">
         <v>19.0833267254927</v>
@@ -11675,10 +11622,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C35" s="22">
         <v>18.712554117592902</v>
@@ -11689,10 +11636,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C36" s="22">
         <v>18.9965808071405</v>
@@ -11703,10 +11650,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C37" s="22">
         <v>19.52</v>
@@ -11717,10 +11664,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" s="22">
         <v>19.22</v>
@@ -11731,10 +11678,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="22">
         <v>19.55</v>
@@ -11745,10 +11692,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" s="22">
         <v>19.27</v>
@@ -11759,10 +11706,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" s="22">
         <v>19.760000000000002</v>
@@ -11773,10 +11720,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="22">
         <v>19.66</v>
@@ -11787,10 +11734,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" s="22">
         <v>18.88</v>
@@ -11801,10 +11748,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C44" s="22">
         <v>19.440000000000001</v>
@@ -11815,10 +11762,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C45" s="22">
         <v>19.559999999999999</v>
@@ -11829,10 +11776,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C46" s="22">
         <v>18.732657125365101</v>
@@ -11843,10 +11790,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C47" s="22">
         <v>18.7748898427899</v>
@@ -11857,10 +11804,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" s="22">
         <v>18.228373356097801</v>
@@ -11871,10 +11818,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C49" s="22">
         <v>19.5364339466418</v>
@@ -11885,10 +11832,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C50" s="22">
         <v>19.573442939854999</v>
@@ -11899,10 +11846,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C51" s="22">
         <v>19.4759915326248</v>
@@ -11913,10 +11860,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C52" s="22">
         <v>20.304524595067502</v>
@@ -11927,10 +11874,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" s="22">
         <v>19.854503770946501</v>
@@ -11941,10 +11888,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" s="22">
         <v>20.162678145701399</v>
@@ -11955,10 +11902,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C55" s="22">
         <v>6.3539542733411896</v>
@@ -11969,10 +11916,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C56" s="22">
         <v>6.1651522800092602</v>
@@ -11983,10 +11930,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C57" s="22">
         <v>5.8444276433775002</v>
@@ -11997,10 +11944,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C58" s="22">
         <v>6.1240180693184199</v>
@@ -12011,10 +11958,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="22">
         <v>6.23484678120768</v>
@@ -12025,10 +11972,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" s="22">
         <v>6.3465391024836997</v>
@@ -12039,10 +11986,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="22">
         <v>6.0344682720536102</v>
@@ -12053,10 +12000,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C62" s="22">
         <v>6.0167944004548097</v>
@@ -12067,10 +12014,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" s="22">
         <v>5.8596925142602103</v>
@@ -12081,10 +12028,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C64" s="22">
         <v>6.3883511655634404</v>
@@ -12095,10 +12042,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="22">
         <v>6.5029891880553103</v>
@@ -12109,10 +12056,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C66" s="22">
         <v>6.2518194387292096</v>
@@ -12123,10 +12070,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C67" s="22">
         <v>6.4444881131151597</v>
@@ -12137,10 +12084,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C68" s="22">
         <v>6.5060409452210699</v>
@@ -12151,10 +12098,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C69" s="22">
         <v>6.4611126679335698</v>
@@ -12165,10 +12112,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C70" s="22">
         <v>6.3224922757812596</v>
@@ -12179,10 +12126,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C71" s="22">
         <v>6.2567850630779001</v>
@@ -12193,10 +12140,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C72" s="22">
         <v>6.1071386031326496</v>
@@ -12207,10 +12154,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C73" s="22">
         <v>5.6154866401777799</v>
@@ -12221,10 +12168,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C74" s="22">
         <v>6.3985366860808899</v>
@@ -12235,10 +12182,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C75" s="22">
         <v>6.2541052154803403</v>
@@ -12249,10 +12196,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" s="22">
         <v>6.7059203090952098</v>
@@ -12263,10 +12210,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C77" s="22">
         <v>6.1961069758320004</v>
@@ -12277,10 +12224,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C78" s="22">
         <v>6.5621899064236899</v>
@@ -12291,10 +12238,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C79" s="22">
         <v>6.0241535044857297</v>
@@ -12305,10 +12252,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C80" s="22">
         <v>5.9282422353107602</v>
@@ -12319,10 +12266,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C81" s="22">
         <v>5.8654923239973904</v>
@@ -12333,10 +12280,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C82" s="22">
         <v>6.5653282619771902</v>
@@ -12347,10 +12294,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C83" s="22">
         <v>6.4234781012003603</v>
@@ -12361,10 +12308,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C84" s="22">
         <v>5.95346900775895</v>
@@ -12375,10 +12322,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C85" s="22">
         <v>6.5247173248528503</v>
@@ -12389,10 +12336,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C86" s="22">
         <v>6.8596884014620603</v>
@@ -12403,10 +12350,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C87" s="22">
         <v>6.72384421377427</v>
@@ -12417,10 +12364,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C88" s="22">
         <v>6.66</v>
@@ -12431,10 +12378,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C89" s="22">
         <v>6.34</v>
@@ -12445,10 +12392,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C90" s="22">
         <v>5.88</v>
